--- a/BOM pi vision.xlsx
+++ b/BOM pi vision.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandru\Desktop\Rpi cv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1664DA-E180-4B53-8AC5-63E6EB93BA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21FD1D3-3649-4EC4-9FE2-DB0FFE810ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{74CC9896-63A8-4FF3-BACC-28EA9DA32B89}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{569AF723-99FF-4776-980E-5CC824114DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Nr crt</t>
   </si>
@@ -47,152 +47,164 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Nr Bucati</t>
+  </si>
+  <si>
+    <t>Pret unitar (Ron)</t>
+  </si>
+  <si>
+    <t>Pret total (Ron)</t>
+  </si>
+  <si>
     <t>Incarcator universal, putere 120W</t>
   </si>
   <si>
     <t>https://www.emag.ro/incarcator-universal-pentru-laptop-putere-120w-10-mufe-conectoare-compatibil-cu-asus-acer-hp-lenovo-dell-compaq-samsung-sony-electroaz-alim-laptop120/pd/DV8PGSBBM/?cmpid=101220&amp;gad_source=1&amp;gclid=CjwKCAiA0PuuBhBsEiwAS7fsNflYHes67H5ayS2eP598X1dt46ENL2nBhUdnpIQJOE6ibp0m_IurnxoC38EQAvD_BwE</t>
   </si>
   <si>
+    <t>Mufa xt30 mama</t>
+  </si>
+  <si>
     <t>https://sogest.ro/mufe-adaptoare-ac-dc/mufa-alimentare-dc-xt30-mama-2-pini-cu-lipire-pe-cablu-15a-500v-amass-xt30u-f</t>
   </si>
   <si>
+    <t>Mufa xt30 tata</t>
+  </si>
+  <si>
     <t>https://sogest.ro/mufe-adaptoare-ac-dc/mufa-alimentare-dc-xt30-tata-2-pini-pe-cablu-lipite-15a-500v-amass-xt30u-m</t>
   </si>
   <si>
-    <t>Mufa xt30 mama</t>
-  </si>
-  <si>
-    <t>Mufa xt30 tata</t>
+    <t>Set tuburi termocontractabile</t>
+  </si>
+  <si>
+    <t>https://sogest.ro/tuburi-termocontractabile/set-tuburi-termocontractabile-10cm-negre-170buc</t>
+  </si>
+  <si>
+    <t>Set de fire siliconice Plusivo (22AWG, 6 culori, 7m fiecare)</t>
+  </si>
+  <si>
+    <t>https://www.optimusdigital.ro/ro/kituri/9514-set-de-fire-siliconice-22awg-6-culori-7m-fiecare.html?search_query=set+fire&amp;results=111</t>
+  </si>
+  <si>
+    <t>Modul sursa coborator de tensiune reglabil</t>
+  </si>
+  <si>
+    <t>https://www.sigmanortec.ro/Modul-sursa-coborator-tensiune-reglabil-300W-8A-p174825734?gad_source=1&amp;gclid=CjwKCAiA0PuuBhBsEiwAS7fsNWlXf9PQM4vAu1FRo1PSqaZpDUyITxrhsjL6wqTQvbMIpBiF8dYtaBoCMmYQAvD_BwE</t>
+  </si>
+  <si>
+    <t>Protoboard</t>
+  </si>
+  <si>
+    <t>https://www.optimusdigital.ro/ro/prototipare-cablaje-de-test/723-placa-de-test-universala-verde-50x70-mm.html</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>https://www.optimusdigital.ro/ro/conectori/197-conector-cu-surub-3p-2-buc-.html?search_query=conector+cu+surub&amp;results=23</t>
+  </si>
+  <si>
+    <t>Motor Servo MG995 11KG 180 Grade</t>
   </si>
   <si>
     <t>https://ardushop.ro/ro/home/94-servomotor-mg995.html?search_query=servo&amp;results=19</t>
   </si>
   <si>
-    <t>https://sogest.ro/tuburi-termocontractabile/set-tuburi-termocontractabile-10cm-negre-170buc</t>
-  </si>
-  <si>
-    <t>Set tuburi termocontractabile</t>
-  </si>
-  <si>
-    <t>https://www.optimusdigital.ro/ro/kituri/9514-set-de-fire-siliconice-22awg-6-culori-7m-fiecare.html?search_query=set+fire&amp;results=111</t>
-  </si>
-  <si>
-    <t>Set de fire siliconice Plusivo (22AWG, 6 culori, 7m fiecare)</t>
-  </si>
-  <si>
-    <t>https://www.sigmanortec.ro/Modul-sursa-coborator-tensiune-reglabil-300W-8A-p174825734?gad_source=1&amp;gclid=CjwKCAiA0PuuBhBsEiwAS7fsNWlXf9PQM4vAu1FRo1PSqaZpDUyITxrhsjL6wqTQvbMIpBiF8dYtaBoCMmYQAvD_BwE</t>
-  </si>
-  <si>
-    <t>Modul sursa coborator de tensiune reglabil</t>
-  </si>
-  <si>
-    <t>https://www.emag.ro/sir-cleme-12x16-mmp-alb-emos-ema4004/pd/DLTZF0MBM/?cmpid=101152&amp;gad_source=1&amp;gclid=CjwKCAiA0PuuBhBsEiwAS7fsNYum2hyxZV7qJ8_phbFf_GZU3FSgZw08Na00Z4lGcLuBcsA2TRd1HBoCDEQQAvD_BwE</t>
-  </si>
-  <si>
-    <t>Set reglete</t>
-  </si>
-  <si>
-    <t>Nr Bucati</t>
-  </si>
-  <si>
-    <t>Pret unitar (Ron)</t>
-  </si>
-  <si>
-    <t>Pret total (Ron)</t>
-  </si>
-  <si>
-    <t>Motor Servo MG995 11KG 180 Grade</t>
+    <t>Raspberry Pi 5/8GB</t>
   </si>
   <si>
     <t>https://www.optimusdigital.ro/ro/placi-raspberry-pi/12929-raspberry-pi-5-8gb.html</t>
   </si>
   <si>
-    <t>Raspberry Pi 5/8GB</t>
+    <t>Card de memorie micro SD</t>
+  </si>
+  <si>
+    <t>https://conectica.ro/dispozitive-mobile/carduri-de-memorie/card-de-memorie-micro-sdhc-32gb-clasa-10-adaptor-sd-adata-ausdh32guicl10-ra1?gad_source=1&amp;gclid=Cj0KCQiA84CvBhCaARIsAMkAvkIpnM-fb-20u_4Tl4fC9zyYH1WGIaf7tobYMrhc11Mqo9Snv5YN31IaApgAEALw_wcB</t>
+  </si>
+  <si>
+    <t>Ventilator pentru Raspberry pi 5</t>
   </si>
   <si>
     <t>https://www.optimusdigital.ro/ro/accesorii/12940-ventilator-pentru-raspberry-pi-5.html</t>
   </si>
   <si>
-    <t>Ventilator pentru Raspberry pi 5</t>
+    <t>Modul Camera 3 pentru Raspberry Pi</t>
   </si>
   <si>
     <t>https://www.optimusdigital.ro/ro/camere/12607-modul-camera-3-pentru-raspberry-pi.html</t>
   </si>
   <si>
-    <t>Modul Camera 3 pentru Raspberry Pi</t>
+    <t>Cablu pentru Camera Raspberry Pi 5 Standard-Mini 200mm</t>
   </si>
   <si>
     <t>https://www.optimusdigital.ro/ro/accesorii/12944-cablu-pentru-camera-raspberry-pi-5-standard-mini-200mm.html?search_query=cablu+camera+raspberry+pi&amp;results=24</t>
   </si>
   <si>
-    <t>Cablu pentru Camera Raspberry Pi 5 Standard-Mini 200mm</t>
+    <t>Set 1280 suruburi hexagonale, zggzerg, cu saibe plate si de blocare</t>
   </si>
   <si>
     <t>https://www.emag.ro/set-1280-suruburi-hexagonale-zggzerg-cu-saibe-plate-si-de-blocare-cutie-de-depozitare-transparenta-pentru-acces-usor-m2-m3-m4-m5-pentru-masini-electronice-lemn-gospodarie-comunicare-inox-argintiu-csj-/pd/DND3WYYBM/</t>
   </si>
   <si>
-    <t>Set 1280 suruburi hexagonale, zggzerg, cu saibe plate si de blocare</t>
+    <t>Filament Polymaker PolyTerra PLA Charcoal Black (negru)1kg</t>
   </si>
   <si>
     <t>https://www.filamente3d.ro/filamente/filament-polymaker-polyterra-pla-charcoal-black-negru-1kg</t>
   </si>
   <si>
+    <t>Filament Polymaker PolyTerra PLA Lavender Purple (violet)1kg</t>
+  </si>
+  <si>
     <t>https://www.filamente3d.ro/filamente/filament-polymaker-polyterra-pla-lavender-purple-violet-1kg</t>
   </si>
   <si>
-    <t>Filament Polymaker PolyTerra PLA Lavender Purple (violet)1kg</t>
-  </si>
-  <si>
-    <t>Filament Polymaker PolyTerra PLA Charcoal Black (negru)1kg</t>
+    <t>Ustensile Rare:</t>
+  </si>
+  <si>
+    <t>Imprimanta 3d (Bambulab A1 Mini)</t>
+  </si>
+  <si>
+    <t>Obligatoriu</t>
   </si>
   <si>
     <t>Dezizolator</t>
   </si>
   <si>
+    <t>Optional (se poate folosi cel din setul de fire)</t>
+  </si>
+  <si>
+    <t>Cablu mini Hdmi</t>
+  </si>
+  <si>
+    <t>Optional (Se poate folosi un laptop cu ethernet)</t>
+  </si>
+  <si>
+    <t>Ustensile Comune:</t>
+  </si>
+  <si>
+    <t>Kit surubelnite</t>
+  </si>
+  <si>
     <t>Cleste</t>
   </si>
   <si>
-    <t>Kit surubelnite</t>
-  </si>
-  <si>
-    <t>Cablu mini Hdmi</t>
+    <t>Optional (Procesul de montare devine mai dificil)</t>
   </si>
   <si>
     <t>Tastatura si Mouse wireless</t>
   </si>
   <si>
-    <t>Card de memorie micro SD</t>
-  </si>
-  <si>
-    <t>https://conectica.ro/dispozitive-mobile/carduri-de-memorie/card-de-memorie-micro-sdhc-32gb-clasa-10-adaptor-sd-adata-ausdh32guicl10-ra1?gad_source=1&amp;gclid=Cj0KCQiA84CvBhCaARIsAMkAvkIpnM-fb-20u_4Tl4fC9zyYH1WGIaf7tobYMrhc11Mqo9Snv5YN31IaApgAEALw_wcB</t>
-  </si>
-  <si>
-    <t>Ustensile Rare:</t>
-  </si>
-  <si>
-    <t>Ustensile Comune:</t>
-  </si>
-  <si>
-    <t>Imprimanta 3d (Bambulab A1 Mini)</t>
-  </si>
-  <si>
-    <t>Obligatoriu</t>
-  </si>
-  <si>
-    <t>Optional (Se poate folosi un laptop cu ethernet)</t>
-  </si>
-  <si>
-    <t>Optional (se poate folosi cel din setul de fire)</t>
-  </si>
-  <si>
-    <t>Optional (Procesul de montare devine mai dificil)</t>
+    <t>Raspberry Pico W</t>
+  </si>
+  <si>
+    <t>https://www.optimusdigital.ro/ro/placi-raspberry-pi/12394-raspberry-pi-pico-w.html?search_query=pico+w&amp;results=31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,24 +213,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF3A3939"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,17 +240,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -585,19 +579,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8069DA15-7CBA-456B-B1E5-122E84EFC397}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7B703E-DF90-4AA9-A2ED-ED3238CAD59A}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -613,24 +606,24 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -648,10 +641,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -660,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F17" si="0">D3*E3</f>
+        <f t="shared" ref="F3:F19" si="0">D3*E3</f>
         <v>5</v>
       </c>
     </row>
@@ -669,10 +662,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -690,20 +683,20 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>42</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -711,20 +704,20 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>45</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -732,10 +725,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -753,20 +746,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -774,20 +767,20 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -795,20 +788,20 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>449</v>
+        <v>1.5</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>449</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -816,20 +809,20 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -837,41 +830,41 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>449</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -879,20 +872,20 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>28</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -900,20 +893,20 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>8.3000000000000007</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -921,20 +914,20 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
       <c r="D16">
-        <v>0.14000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>15.260000000000002</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -944,93 +937,120 @@
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
+      <c r="C17" t="s">
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="E17">
+        <v>83</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>109</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>6.54</v>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>109</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.emag.ro/incarcator-universal-pentru-laptop-putere-120w-10-mufe-conectoare-compatibil-cu-asus-acer-hp-lenovo-dell-compaq-samsung-sony-electroaz-alim-laptop120/pd/DV8PGSBBM/?cmpid=101220&amp;gad_source=1&amp;gclid=CjwKCAiA0PuuBhBsEiwAS7fsNflYHes67H5ayS2eP598X1dt46ENL2nBhUdnpIQJOE6ibp0m_IurnxoC38EQAvD_BwE" xr:uid="{C0DB8FD0-FF78-4B06-B627-26E177C10210}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{A9987FD8-D1BF-4E67-8594-C1FA4737AE48}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{B08589A0-1824-4AF1-86D9-6BFDA543429B}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{BE9CD3A2-7B4F-46F8-939F-1FB68978E94A}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{018E24DD-595E-4C08-8427-CE797A5BC724}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{2BB3F0C6-1FD4-4D46-929C-2203444BFE60}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{0DCBE554-832D-45F6-88C2-3E2277DE87D7}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{F2C705F5-831F-483E-B42A-40191B813B58}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{E2B7311C-C149-46CB-8E67-84B8C77FE341}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{726E23D4-6B3F-4143-A500-206AE513FF74}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{B84A89E8-1A27-47E9-B5FD-F3A5A1A67FDC}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{A32972AF-7D64-4273-9641-88F056806287}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{7F7A0B50-19DC-4206-991D-6278166EA97F}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{72136969-367C-4FA0-B255-944765583CF9}"/>
-    <hyperlink ref="C12" r:id="rId15" xr:uid="{34DEF4A7-0EAB-4792-AE51-25381D055839}"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{EA808D70-24CE-42DC-8BE3-C4E3977B382F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>